--- a/crm接口文档/联系人管理/修改联系人信息.xlsx
+++ b/crm接口文档/联系人管理/修改联系人信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>/qiuxx/crm/20010/200</t>
+    <t>/crm/20010/200</t>
   </si>
   <si>
     <t>接口描述</t>
@@ -93,7 +93,10 @@
     <t>lkmSex</t>
   </si>
   <si>
-    <t>联系人性别 男，女</t>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>联系人性别（枚举项，enumType=SEX）</t>
   </si>
   <si>
     <t>lkmMobile</t>
@@ -164,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -222,6 +225,103 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -231,10 +331,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,126 +368,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -399,13 +402,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +540,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,145 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,20 +648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,11 +680,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,15 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -728,17 +717,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,133 +765,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1319,12 +1322,13 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1478,10 +1482,10 @@
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -1495,7 +1499,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -1503,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
@@ -1517,7 +1521,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -1525,7 +1529,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
@@ -1539,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -1547,7 +1551,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
@@ -1561,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -1569,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
@@ -1580,7 +1584,7 @@
     </row>
     <row r="13" ht="27.75" customHeight="1" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>12</v>
@@ -1604,18 +1608,18 @@
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:10">
       <c r="A14" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -1626,10 +1630,10 @@
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:10">
       <c r="A15" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -1637,21 +1641,21 @@
         <v>22</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J15" s="20"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:10">
       <c r="A16" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1659,29 +1663,29 @@
         <v>22</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J16" s="20"/>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:10">
       <c r="A17" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
